--- a/data/trans_dic/P62-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,25; 84,56</t>
+          <t>66,97; 83,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,92; 61,91</t>
+          <t>43,05; 61,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,77; 73,26</t>
+          <t>56,45; 73,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,88; 75,07</t>
+          <t>59,03; 74,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,0; 56,51</t>
+          <t>36,27; 57,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,15; 41,22</t>
+          <t>23,1; 41,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,88; 47,49</t>
+          <t>29,68; 47,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,11; 56,44</t>
+          <t>42,54; 57,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56,06; 69,95</t>
+          <t>55,42; 69,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,7; 49,22</t>
+          <t>36,18; 49,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,83; 58,77</t>
+          <t>46,92; 58,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,11; 64,51</t>
+          <t>54,04; 64,49</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,58; 87,92</t>
+          <t>72,27; 88,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,37; 68,47</t>
+          <t>51,35; 67,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,02; 67,67</t>
+          <t>51,18; 67,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,08; 78,98</t>
+          <t>66,53; 79,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 26,11</t>
+          <t>12,22; 26,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,07; 30,1</t>
+          <t>15,79; 29,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 28,14</t>
+          <t>15,91; 29,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,43; 54,66</t>
+          <t>40,48; 53,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,03; 51,02</t>
+          <t>37,52; 50,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,58; 46,22</t>
+          <t>35,03; 46,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,05; 43,14</t>
+          <t>32,1; 43,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>55,95; 66,52</t>
+          <t>56,24; 66,28</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,33; 79,85</t>
+          <t>66,49; 80,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,19; 58,76</t>
+          <t>47,17; 58,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,05; 63,8</t>
+          <t>52,14; 63,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,64; 79,55</t>
+          <t>67,41; 79,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 27,71</t>
+          <t>12,9; 27,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,38; 49,0</t>
+          <t>33,15; 49,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,37; 60,68</t>
+          <t>39,14; 60,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,99; 63,01</t>
+          <t>46,76; 62,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,75; 58,24</t>
+          <t>45,62; 57,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,85; 54,42</t>
+          <t>44,82; 54,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>50,9; 60,64</t>
+          <t>50,92; 60,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>62,39; 72,47</t>
+          <t>62,13; 72,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>64,53; 72,59</t>
+          <t>64,6; 73,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,83; 52,39</t>
+          <t>44,65; 52,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,51; 56,71</t>
+          <t>48,54; 56,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,95; 67,14</t>
+          <t>56,44; 67,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,05; 32,45</t>
+          <t>23,47; 32,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,18; 29,79</t>
+          <t>20,63; 29,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,88; 36,79</t>
+          <t>27,97; 36,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 85,49</t>
+          <t>35,76; 85,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,53; 54,07</t>
+          <t>47,69; 54,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,59; 42,35</t>
+          <t>36,55; 42,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>41,13; 47,21</t>
+          <t>41,3; 47,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 76,27</t>
+          <t>50,5; 79,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,83; 58,77</t>
+          <t>43,68; 59,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,57; 49,17</t>
+          <t>38,13; 48,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,2; 50,75</t>
+          <t>40,59; 50,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53,64; 66,6</t>
+          <t>53,45; 66,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,57; 33,1</t>
+          <t>23,73; 33,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,31; 43,34</t>
+          <t>35,17; 43,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,72; 43,42</t>
+          <t>34,88; 43,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,1; 51,26</t>
+          <t>44,09; 51,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,36; 39,75</t>
+          <t>31,78; 40,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,29; 44,07</t>
+          <t>37,18; 43,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>38,54; 44,99</t>
+          <t>38,65; 44,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,47; 54,89</t>
+          <t>48,93; 55,29</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,56</t>
+          <t>1,65; 6,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 10,23</t>
+          <t>3,47; 10,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,8</t>
+          <t>1,46; 5,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 8,51</t>
+          <t>2,34; 8,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,81; 24,57</t>
+          <t>19,7; 24,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,96; 27,08</t>
+          <t>22,04; 27,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,89; 26,38</t>
+          <t>20,56; 26,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,42; 28,72</t>
+          <t>23,52; 29,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,63; 20,46</t>
+          <t>16,45; 20,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,93; 23,38</t>
+          <t>18,96; 23,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,31; 21,65</t>
+          <t>17,12; 21,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,74; 23,45</t>
+          <t>18,78; 23,14</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>51,76; 57,28</t>
+          <t>51,86; 57,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41,64; 46,26</t>
+          <t>41,82; 46,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,05; 48,52</t>
+          <t>44,01; 48,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52,27; 58,35</t>
+          <t>52,0; 58,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,95; 26,35</t>
+          <t>22,95; 26,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,12; 31,0</t>
+          <t>27,27; 30,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,33; 32,25</t>
+          <t>28,27; 32,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,07; 58,56</t>
+          <t>37,04; 59,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34,04; 37,0</t>
+          <t>33,97; 37,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,07; 36,96</t>
+          <t>34,17; 37,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>35,87; 38,89</t>
+          <t>35,9; 38,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>44,6; 58,49</t>
+          <t>44,79; 57,95</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que percibe algun tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>88059</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>70044</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>98181</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>103603</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41692</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37237</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>49632</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>64360</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>129751</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>107281</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>147813</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>167963</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>76939; 96497</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>56962; 81640</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>84359; 109526</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>90499; 114642</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32475; 51042</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27497; 48808</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38746; 62611</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>55290; 74233</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>113293; 142974</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>90928; 124576</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>131380; 164529</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>153068; 182670</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>77791</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>95393</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>79176</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>107772</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25860</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37329</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38520</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60682</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>103651</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>132723</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>117696</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>168453</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>69506; 84924</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>82310; 108552</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>68163; 89876</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>98362; 118110</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16874; 36648</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26363; 50033</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28820; 52643</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51931; 69175</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>87892; 118775</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>114636; 153075</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>100919; 135237</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>155293; 183004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>118360</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>185089</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>174775</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>131126</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21227</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>58927</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49077</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51631</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>139587</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>244017</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>223852</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>182757</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>106659; 128342</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>164528; 203445</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>157458; 191200</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>120383; 141369</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14082; 29790</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48245; 71758</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38321; 58888</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43815; 58612</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>122982; 156209</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>221572; 268002</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>203600; 243859</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>169159; 196128</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>362661</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>349793</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>345722</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>295144</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>113014</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>116798</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>145555</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>332846</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>475675</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>466590</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>491277</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>627991</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>340610; 385640</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>322205; 379375</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>319132; 373983</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>267444; 317937</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>95132; 131337</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>95048; 136989</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>126740; 166562</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>197230; 470614</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>444814; 505700</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>432104; 497962</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>458735; 526473</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>517767; 816298</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>82700</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>153795</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>193672</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>141088</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>101155</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>226560</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>208069</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>221446</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>183855</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>380355</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>401740</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>362534</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>71098; 96394</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>135663; 170806</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>172474; 214768</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>125501; 155972</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>84341; 119697</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>202999; 250550</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>186697; 232363</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>204906; 238186</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>164691; 209823</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>346899; 409667</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>371121; 430419</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>342313; 386761</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10294</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16095</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8443</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10850</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>275182</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>270397</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>248673</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>197340</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>285476</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>286492</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>257116</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>208191</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4876; 18699</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9008; 26771</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3996; 15773</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5570; 19856</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>245822; 302654</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>242457; 302147</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>216539; 278178</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>177961; 219885</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>253743; 315559</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>257775; 317744</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>227106; 289774</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>186751; 230078</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1407</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1474</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1538</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2523</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>739864</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>870209</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>899968</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>789584</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>578130</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>747248</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>739525</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>928305</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1317995</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1617457</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1639493</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1717889</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>703479; 778050</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>827474; 917680</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>853951; 943303</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>741598; 833951</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>538352; 617338</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>700615; 793232</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>693042; 787518</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>786978; 1270673</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1257545; 1377472</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1553842; 1686184</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1576513; 1707991</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1590579; 2057706</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P62-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
